--- a/alpha.xlsx
+++ b/alpha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD7EA06-71CB-4EDD-96A4-6A0EC2A047E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C814A1D-1644-4396-A30A-B225A5259EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F2CE6E8-C5BE-407D-B265-AB2676D216A0}"/>
   </bookViews>
@@ -25,37 +25,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>contrato</t>
   </si>
   <si>
-    <t>1 aditivo</t>
-  </si>
-  <si>
-    <t>1 apostilamento</t>
-  </si>
-  <si>
-    <t>prazo</t>
-  </si>
-  <si>
-    <t>2 aditivo</t>
-  </si>
-  <si>
-    <t>2 apostilamento</t>
-  </si>
-  <si>
-    <t>3 aditivo</t>
-  </si>
-  <si>
-    <t>empenhos</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>1º aditivo</t>
+  </si>
+  <si>
+    <t>1° apostilamento</t>
+  </si>
+  <si>
+    <t>valor2</t>
+  </si>
+  <si>
+    <t>valor1</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>2° aditivo</t>
+  </si>
+  <si>
+    <t>2° apostilamento</t>
+  </si>
+  <si>
+    <t>3º aditivo</t>
+  </si>
+  <si>
+    <t>indice</t>
+  </si>
+  <si>
+    <t>24,70% de 5.689.421,25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +78,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -99,11 +127,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,97 +451,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB928B78-900A-4888-BDB3-1CB54B2B1A77}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="A3:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44685</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5310660</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45050</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5310660</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45099</v>
+      </c>
+      <c r="B6" s="4">
+        <v>200742.94</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="F6" s="6">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45415</v>
+      </c>
+      <c r="B7" s="4">
         <v>5310660</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C7" s="4">
+        <v>200742.94</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(B7:C7)</f>
         <v>5511402.9400000004</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="4">
+        <f>D7</f>
+        <v>5511402.9400000004</v>
+      </c>
+      <c r="C8" s="4">
+        <v>178018.31</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B8+C8</f>
         <v>5689421.25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45643</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
         <v>1311968.8</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
-        <v>3.78E-2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>45447</v>
-      </c>
-      <c r="C11">
-        <v>1200000</v>
+      <c r="G9" s="1">
+        <v>1405539.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1405539.64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>